--- a/3.xlsx
+++ b/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/java/Desktop/schafer/final/funcmethod-shop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F55E0F8-10EB-7847-8E00-B9507A74D9DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73DE437-CE8B-DA43-AEAA-CC6C3A06C0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="8660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8450,7 +8450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F829"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A509" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -24950,7 +24950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -25755,7 +25755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A590" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
